--- a/2.2/Empi/2LabEMPI.xlsx
+++ b/2.2/Empi/2LabEMPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Вариационный ряд</t>
   </si>
@@ -70,12 +70,6 @@
     <t>D~</t>
   </si>
   <si>
-    <t>Омега ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Омега </t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -87,12 +81,76 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift SemiBold"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ~</t>
+    </r>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>D*x</t>
+  </si>
+  <si>
+    <t>Оценка D точным методом</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +165,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -124,14 +196,404 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -147,6 +609,1853 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1594925634295717E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.88396062992125979"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$37:$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45,161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45,739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46,823</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.079078786466312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.501189238484457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.417049342683796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.160921213533697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.738810761515552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.822950657316213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384269512"/>
+        <c:axId val="384271472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="384269512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384271472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384271472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384269512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="3948112"/>
+          <a:ext cx="914400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254863</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1945</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5979388" y="4924425"/>
+          <a:ext cx="4128582" cy="995514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>605870</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5943600" y="6088028"/>
+          <a:ext cx="4158695" cy="705368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>70242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603207</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5915025" y="7347342"/>
+          <a:ext cx="2479632" cy="463165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5915025" y="8865317"/>
+          <a:ext cx="3405575" cy="373891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20067</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>583374</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>20586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9640317" y="7267575"/>
+          <a:ext cx="2735007" cy="573036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571957</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4361</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9582607" y="8072748"/>
+          <a:ext cx="1261204" cy="387626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494179</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7256929" y="12258115"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505384</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7268134" y="12448615"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516591</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>39219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7279341" y="12650319"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580779</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745009" y="9296400"/>
+          <a:ext cx="560295" cy="227832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555482</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="9500438"/>
+          <a:ext cx="555482" cy="225946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>847189</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>93622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724526" y="9700722"/>
+          <a:ext cx="847188" cy="232225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509954</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="624254" y="15497908"/>
+          <a:ext cx="495300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="688041" y="16034497"/>
+          <a:ext cx="495300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517712</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="632012" y="16594791"/>
+          <a:ext cx="495300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,417 +2761,620 @@
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="16.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.42578125" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="27">
         <v>29</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="28">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="28">
         <v>30</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="28">
         <v>34</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="28">
         <v>35</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="28">
         <v>39</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="28">
         <v>39</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="28">
         <v>39</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="28">
         <v>40</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="28">
         <v>40</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="28">
         <v>41</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="28">
         <v>42</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="28">
         <v>43</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="28">
         <v>44</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="28">
         <v>45</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="28">
         <v>45</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="28">
         <v>46</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="28">
         <v>47</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="28">
         <v>48</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="28">
         <v>48</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="28">
         <v>49</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="28">
         <v>49</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="28">
         <v>49</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="28">
         <v>52</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="28">
         <v>53</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="28">
         <v>53</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="28">
         <v>55</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="28">
         <v>58</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="29">
         <v>58</v>
       </c>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>(A2-$F$22)^2</f>
+        <v>456.53444444444449</v>
+      </c>
+      <c r="B3" s="3">
+        <f>(B2-$F$22)^2</f>
+        <v>206.40111111111113</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:AD3" si="0">(C2-$F$22)^2</f>
+        <v>206.40111111111113</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>178.66777777777779</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>87.734444444444449</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>70.001111111111115</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>19.067777777777781</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>19.067777777777781</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>19.067777777777781</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>11.334444444444447</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>11.334444444444447</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6011111111111136</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8677777777777791</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13444444444444478</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40111111111111053</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.667777777777776</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.667777777777776</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9344444444444422</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>13.201111111111107</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="0"/>
+        <v>21.467777777777773</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="0"/>
+        <v>21.467777777777773</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="0"/>
+        <v>31.734444444444438</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" si="0"/>
+        <v>31.734444444444438</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>31.734444444444438</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>74.534444444444432</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" si="0"/>
+        <v>92.801111111111098</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="0"/>
+        <v>92.801111111111098</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="0"/>
+        <v>135.33444444444444</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="0"/>
+        <v>214.13444444444443</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" si="0"/>
+        <v>214.13444444444443</v>
+      </c>
+    </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>29</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>35</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>39</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>40</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>41</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>42</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>43</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>44</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>45</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>46</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>47</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>48</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>49</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>52</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>53</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <v>55</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <v>58</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>3</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>0.1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="11">
         <v>0.1</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="12">
         <f xml:space="preserve"> SUM(C7:V7)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="J10" s="3">
+        <f>COUNT(A2:AD2)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="11">
         <f>3/30</f>
         <v>0.1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
         <v>0.1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="11">
         <v>0.26666666666666666</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="11">
         <v>0.2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="12">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>25.6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>40</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>47.2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>54.4</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="2"/>
@@ -887,25 +3399,25 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>10</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>6</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="13">
         <v>30</v>
       </c>
       <c r="I16" s="2"/>
@@ -929,27 +3441,27 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="11">
         <f>3/30</f>
         <v>0.1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
         <v>0.1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="11">
         <v>0.26666666666666666</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="11">
         <v>0.2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="12">
         <v>1</v>
       </c>
       <c r="I17" s="2"/>
@@ -973,12 +3485,27 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f>(C15-$C$22)^2*C17</f>
+        <v>30.695040000000013</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:G18" si="1">(D15-$C$22)^2*D17</f>
+        <v>10.650240000000016</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5958400000000079</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5487999999999946</v>
+      </c>
+      <c r="G18" s="2">
+        <f>(G15-$C$22)^2*G17</f>
+        <v>25.447679999999977</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1001,7 +3528,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1029,24 +3556,24 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+    <row r="20" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
         <f>C15*C17</f>
         <v>2.5600000000000005</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="15">
         <f>D15*D17</f>
         <v>3.28</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="15">
         <f>E15*E17</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="15">
         <f>F15*F17</f>
         <v>15.733333333333334</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="16">
         <f>G15*G17</f>
         <v>10.88</v>
       </c>
@@ -1073,7 +3600,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1101,17 +3628,22 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="16">
         <f>SUM(B20:F20)</f>
         <v>43.120000000000005</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="25">
+        <f>SUM(A2:AD2)/30</f>
+        <v>43.366666666666667</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1135,11 +3667,11 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1163,7 +3695,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,84 +3726,285 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <f>(C15-C22)*(C15-C22)*C17</f>
-        <v>30.695040000000013</v>
-      </c>
-      <c r="C26" s="2">
-        <f>(D15-C22)*(D15-C22)*D17</f>
-        <v>10.650240000000016</v>
-      </c>
-      <c r="D26" s="2">
-        <f>(E15-C22)*(E15-C22)*E17</f>
-        <v>2.5958400000000079</v>
-      </c>
-      <c r="E26" s="2">
-        <f>(F15-C22)*(F15-C22)*F17</f>
-        <v>5.5487999999999946</v>
-      </c>
-      <c r="F26" s="2">
-        <f>(G15-C22)*(G15-C22)*G17</f>
-        <v>25.447679999999977</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="I25" s="2">
+        <f>(A2-$C$22)^4</f>
+        <v>198964.52775936018</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ref="J25:AL25" si="2">(B2-$C$22)^4</f>
+        <v>39750.151375360052</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>39750.151375360052</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>29630.251663360039</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>6917.9808153600125</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>4347.3451033600086</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="2"/>
+        <v>288.13025536000129</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>288.13025536000129</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="2"/>
+        <v>288.13025536000129</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="2"/>
+        <v>94.758543360000573</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="2"/>
+        <v>94.758543360000573</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="2"/>
+        <v>20.199631360000172</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5735193600000255</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0736000000003141E-4</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59969535999998758</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="2"/>
+        <v>12.491983359999878</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="2"/>
+        <v>12.491983359999878</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="2"/>
+        <v>68.797071359999578</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="2"/>
+        <v>226.63495935999896</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="2"/>
+        <v>567.12564735999797</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="2"/>
+        <v>567.12564735999797</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" si="2"/>
+        <v>1195.3891353599963</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="2"/>
+        <v>1195.3891353599963</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="2"/>
+        <v>1195.3891353599963</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="2"/>
+        <v>6218.0163993599863</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="2"/>
+        <v>9528.5710873599819</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="2"/>
+        <v>9528.5710873599819</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="2"/>
+        <v>19918.918863359966</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="2"/>
+        <v>49024.336527359934</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="2"/>
+        <v>49024.336527359934</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <f>(C15-F22)*(C15-F22)*C17</f>
+        <v>31.565444444444445</v>
+      </c>
+      <c r="C26" s="11">
+        <f>(D15-F22)*(D15-F22)*D17</f>
+        <v>11.165444444444452</v>
+      </c>
+      <c r="D26" s="11">
+        <f>(E15-F22)*(E15-F22)*E17</f>
+        <v>3.022518518518519</v>
+      </c>
+      <c r="E26" s="11">
+        <f>(F15-F22)*(F15-F22)*F17</f>
+        <v>4.8981481481481541</v>
+      </c>
+      <c r="F26" s="11">
+        <f>(G15-F22)*(G15-F22)*G17</f>
+        <v>24.346888888888884</v>
+      </c>
+      <c r="G26" s="12">
         <f>SUM(B26:F26)</f>
-        <v>74.937600000000003</v>
+        <v>74.998444444444459</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <f>I25^(1/2)</f>
+        <v>446.05440000000021</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:AL26" si="3">J25^(1/2)</f>
+        <v>199.37440000000012</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>199.37440000000012</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="3"/>
+        <v>172.13440000000011</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>83.174400000000077</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>65.934400000000068</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="3"/>
+        <v>16.974400000000038</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>16.974400000000038</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="3"/>
+        <v>16.974400000000038</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7344000000000293</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7344000000000293</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4944000000000193</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2544000000000102</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4400000000001091E-2</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.77439999999999198</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5343999999999829</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5343999999999829</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2943999999999747</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="3"/>
+        <v>15.054399999999966</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="3"/>
+        <v>23.814399999999956</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="3"/>
+        <v>23.814399999999956</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="3"/>
+        <v>34.574399999999947</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="3"/>
+        <v>34.574399999999947</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="3"/>
+        <v>34.574399999999947</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="3"/>
+        <v>78.854399999999913</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="3"/>
+        <v>97.614399999999904</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="3"/>
+        <v>97.614399999999904</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="3"/>
+        <v>141.13439999999989</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="3"/>
+        <v>221.41439999999986</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="3"/>
+        <v>221.41439999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1299,22 +4032,22 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
-        <f>1/30 * G26</f>
-        <v>2.4979200000000001</v>
+      <c r="C28" s="43">
+        <f>SUM(A3:AD3)/30</f>
+        <v>76.032222222222245</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="20">
         <v>44.5</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1337,16 +4070,24 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
+    <row r="29" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="16">
+        <f>SUM(C18:G18)</f>
+        <v>74.937600000000003</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4">
         <v>39</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="13">
+        <v>49</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1369,23 +4110,23 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="45">
         <f>(C28*30)/29</f>
-        <v>2.5840551724137932</v>
+        <v>78.654022988505758</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="11">
         <f>53-22</f>
         <v>31</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1394,7 +4135,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2">
+        <f>SUM(I25:AL25)/J10</f>
+        <v>15624.009139626671</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1408,7 +4152,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1436,13 +4180,13 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2">
+    <row r="32" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="25">
         <f>SQRT(C28)</f>
-        <v>1.5804809394611503</v>
+        <v>8.7196457624276373</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1470,13 +4214,13 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
+    <row r="33" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="12">
         <f>SQRT(C30)</f>
-        <v>1.6074996648254063</v>
+        <v>8.8687103340060531</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1504,7 +4248,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1532,13 +4276,13 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2">
-        <f>C32*100/C22</f>
-        <v>3.6653083011622223</v>
+    <row r="35" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C32*100/F22</f>
+        <v>20.106792688149817</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1552,7 +4296,10 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="2">
+        <f>(P30/J10)-(J10-3)/(J10*(J10-1))*C29^2</f>
+        <v>346.5217010547741</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -1566,11 +4313,13 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1595,10 +4344,21 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="35">
+        <f>$C$22-F37*SQRT($C$28/$J$10)</f>
+        <v>41.079078786466312</v>
+      </c>
+      <c r="D37" s="35">
+        <f>$C$22+F37*SQRT($C$28/$J$10)</f>
+        <v>45.160921213533697</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36">
+        <v>1.282</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1623,10 +4383,21 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
+        <f t="shared" ref="C38:C39" si="4">$C$22-F38*SQRT($C$28/$J$10)</f>
+        <v>40.501189238484457</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" ref="D38:D39" si="5">$C$22+F38*SQRT($C$28/$J$10)</f>
+        <v>45.738810761515552</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="38">
+        <v>1.645</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1650,11 +4421,22 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    <row r="39" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="40">
+        <f t="shared" si="4"/>
+        <v>39.417049342683796</v>
+      </c>
+      <c r="D39" s="40">
+        <f t="shared" si="5"/>
+        <v>46.822950657316213</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41">
+        <v>2.3260000000000001</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1678,8 +4460,152 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1">
+        <f>$C$32/SQRT($J$10) * 0.9*($J$10-1)</f>
+        <v>41.550736094562758</v>
+      </c>
+      <c r="R41" s="2">
+        <f>SUM(I26:AL26)/29</f>
+        <v>78.716965517241391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1">
+        <f>$C$32/SQRT($J$10) * 0.95*($J$10-1)</f>
+        <v>43.859110322038468</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <f>$C$32/SQRT($J$10) * 0.99*($J$10-1)</f>
+        <v>45.705809704019039</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43" s="46">
+        <f>F37*$P$45</f>
+        <v>11.374235008771301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+      <c r="J44" s="46">
+        <f t="shared" ref="J44:J45" si="6">F38*$P$45</f>
+        <v>14.59486473434383</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="I45"/>
+      <c r="J45" s="46">
+        <f t="shared" si="6"/>
+        <v>20.636872566616258</v>
+      </c>
+      <c r="P45" s="1">
+        <f>SQRT(R41)</f>
+        <v>8.8722581971695007</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+      <c r="D48" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+    </row>
+    <row r="51" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+      <c r="C51" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+      <c r="D51" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+      <c r="J51" s="2">
+        <f>$R$41-J43</f>
+        <v>67.342730508470083</v>
+      </c>
+      <c r="K51" s="2">
+        <f>$R$41+J43</f>
+        <v>90.091200526012699</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="J52" s="2">
+        <f t="shared" ref="J52:J53" si="7">$R$41-J44</f>
+        <v>64.122100782897562</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" ref="K52:K53" si="8">$R$41+J44</f>
+        <v>93.311830251585221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="J53" s="2">
+        <f t="shared" si="7"/>
+        <v>58.080092950625129</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="8"/>
+        <v>99.353838083857653</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+      <c r="D54" s="47">
+        <f>(30*C28)/(36.4*(30-1))</f>
+        <v>2.1608248073765322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>